--- a/src/test/resources/com/sirion/xls/PO Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/PO Suite.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/com/sirion/xls/PO Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/PO Suite.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work@Ajay.Suryavamshi\SeleniumUIAutomation\Automation\src\test\resources\com\sirion\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajay.suryavamshi\git\selenium\src\test\resources\com\sirion\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>TCID</t>
   </si>
@@ -85,9 +85,6 @@
     <t>poContract</t>
   </si>
   <si>
-    <t>click</t>
-  </si>
-  <si>
     <t>Asia/Kolkata (GMT +05:30)</t>
   </si>
   <si>
@@ -124,7 +121,7 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>HSBC</t>
   </si>
 </sst>
 </file>
@@ -528,9 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -561,30 +556,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -695,23 +690,23 @@
         <v>144</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -719,7 +714,7 @@
         <v>1500</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
@@ -738,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -758,10 +753,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -778,7 +773,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="15">
         <v>140</v>
@@ -790,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
